--- a/Parameters table guide.xlsx
+++ b/Parameters table guide.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szata\Codes\StoriesTeams\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB221875-3297-406D-B1DC-EF0C67F13B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26AF543-EEE5-4CB7-BF73-393DCB49E807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A72227BA-6150-4B49-869F-1EC4BCBCAEF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{A72227BA-6150-4B49-869F-1EC4BCBCAEF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Data structure_Simulink" sheetId="1" r:id="rId1"/>
     <sheet name="Data structure_Optimisation" sheetId="3" r:id="rId2"/>
+    <sheet name="KPI outputs" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="320">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -898,13 +899,112 @@
   </si>
   <si>
     <t>CSP Capital cost per module [€]</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>Flexibility Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">– </t>
+  </si>
+  <si>
+    <t>FF_base</t>
+  </si>
+  <si>
+    <t>Baseline Flexibility Factor</t>
+  </si>
+  <si>
+    <t>FF_W</t>
+  </si>
+  <si>
+    <t>Weighted Flexibility Factor</t>
+  </si>
+  <si>
+    <t>FF_SB</t>
+  </si>
+  <si>
+    <t>Flexibility Shift Benefit</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>FF_shift</t>
+  </si>
+  <si>
+    <t>Relative Flexibility Shift</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>Eff_el</t>
+  </si>
+  <si>
+    <t>Electrical Efficiency</t>
+  </si>
+  <si>
+    <t>Eff_th</t>
+  </si>
+  <si>
+    <t>Thermal Efficiency</t>
+  </si>
+  <si>
+    <t>Eff</t>
+  </si>
+  <si>
+    <t>Overall System Efficiency</t>
+  </si>
+  <si>
+    <t>LCOE</t>
+  </si>
+  <si>
+    <t>Levelized Cost of Energy</t>
+  </si>
+  <si>
+    <t>EUR/kWh</t>
+  </si>
+  <si>
+    <t>Capex</t>
+  </si>
+  <si>
+    <t>Capital Expenditure</t>
+  </si>
+  <si>
+    <t>Annual_Opex</t>
+  </si>
+  <si>
+    <t>Annual Operational Expenditure</t>
+  </si>
+  <si>
+    <t>EUR/year</t>
+  </si>
+  <si>
+    <t>Opex_per_kWh</t>
+  </si>
+  <si>
+    <t>Operational Cost per Unit Energy Delivered</t>
+  </si>
+  <si>
+    <t>Co2_emission</t>
+  </si>
+  <si>
+    <t>Total CO₂ Emission reduction rate compared to no renewable energy utilisation</t>
+  </si>
+  <si>
+    <t>kgCO₂</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,6 +1093,25 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1032,7 +1151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1162,6 +1281,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1238,38 +1409,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9439985351115455E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9439985351115455E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color theme="0" tint="-0.34998626667073579"/>
@@ -1391,10 +1550,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1714,23 +1869,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB92B14-1692-4C09-8448-4C4DAA882D37}">
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="55.44140625" customWidth="1"/>
-    <col min="7" max="7" width="54.44140625" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="55.42578125" customWidth="1"/>
+    <col min="7" max="7" width="54.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>212</v>
       </c>
@@ -1739,7 +1894,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
         <v>181</v>
       </c>
@@ -1748,7 +1903,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>213</v>
       </c>
@@ -1762,7 +1917,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>178</v>
       </c>
@@ -1775,7 +1930,7 @@
       <c r="H4" s="18"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>180</v>
       </c>
@@ -1792,7 +1947,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>110</v>
       </c>
@@ -1808,7 +1963,7 @@
       </c>
       <c r="I6" s="25"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>111</v>
       </c>
@@ -1824,7 +1979,7 @@
       </c>
       <c r="I7" s="25"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>112</v>
       </c>
@@ -1840,7 +1995,7 @@
       </c>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>113</v>
       </c>
@@ -1856,7 +2011,7 @@
       </c>
       <c r="I9" s="25"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>114</v>
       </c>
@@ -1872,7 +2027,7 @@
       </c>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>115</v>
       </c>
@@ -1889,7 +2044,7 @@
       </c>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>116</v>
       </c>
@@ -1900,12 +2055,12 @@
       <c r="F12" t="s">
         <v>194</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" t="s">
         <v>195</v>
       </c>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>117</v>
       </c>
@@ -1916,12 +2071,12 @@
       <c r="F13" t="s">
         <v>196</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" t="s">
         <v>104</v>
       </c>
       <c r="I13" s="25"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>118</v>
       </c>
@@ -1932,12 +2087,12 @@
       <c r="F14" t="s">
         <v>197</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="60" t="s">
         <v>208</v>
       </c>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>119</v>
       </c>
@@ -1948,12 +2103,12 @@
       <c r="F15" t="s">
         <v>198</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="59" t="s">
         <v>209</v>
       </c>
       <c r="I15" s="25"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>120</v>
       </c>
@@ -1964,12 +2119,12 @@
       <c r="F16" t="s">
         <v>199</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" t="s">
         <v>265</v>
       </c>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>121</v>
       </c>
@@ -1980,12 +2135,12 @@
       <c r="F17" t="s">
         <v>200</v>
       </c>
-      <c r="G17" s="61" t="s">
+      <c r="G17" t="s">
         <v>206</v>
       </c>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>122</v>
       </c>
@@ -1996,12 +2151,12 @@
       <c r="F18" t="s">
         <v>201</v>
       </c>
-      <c r="G18" s="62" t="s">
+      <c r="G18" s="60" t="s">
         <v>264</v>
       </c>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>123</v>
       </c>
@@ -2012,12 +2167,12 @@
       <c r="F19" t="s">
         <v>202</v>
       </c>
-      <c r="G19" s="61" t="s">
+      <c r="G19" t="s">
         <v>263</v>
       </c>
       <c r="I19" s="25"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>124</v>
       </c>
@@ -2028,12 +2183,12 @@
       <c r="F20" t="s">
         <v>194</v>
       </c>
-      <c r="G20" s="62" t="s">
+      <c r="G20" s="60" t="s">
         <v>210</v>
       </c>
       <c r="I20" s="25"/>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="55" t="s">
         <v>214</v>
       </c>
@@ -2046,7 +2201,7 @@
       </c>
       <c r="I21" s="25"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>176</v>
       </c>
@@ -2059,7 +2214,7 @@
       <c r="H22" s="18"/>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>174</v>
       </c>
@@ -2076,7 +2231,7 @@
       <c r="H23" s="22"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>132</v>
       </c>
@@ -2092,7 +2247,7 @@
       </c>
       <c r="I24" s="25"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>133</v>
       </c>
@@ -2108,7 +2263,7 @@
       </c>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>134</v>
       </c>
@@ -2124,7 +2279,7 @@
       </c>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>135</v>
       </c>
@@ -2140,7 +2295,7 @@
       </c>
       <c r="I27" s="25"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>136</v>
       </c>
@@ -2156,7 +2311,7 @@
       </c>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>137</v>
       </c>
@@ -2172,7 +2327,7 @@
       </c>
       <c r="I29" s="25"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>138</v>
       </c>
@@ -2188,7 +2343,7 @@
       </c>
       <c r="I30" s="25"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>139</v>
       </c>
@@ -2204,7 +2359,7 @@
       </c>
       <c r="I31" s="25"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>140</v>
       </c>
@@ -2220,7 +2375,7 @@
       </c>
       <c r="I32" s="25"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>141</v>
       </c>
@@ -2236,7 +2391,7 @@
       </c>
       <c r="I33" s="25"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>142</v>
       </c>
@@ -2252,7 +2407,7 @@
       </c>
       <c r="I34" s="25"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>143</v>
       </c>
@@ -2268,7 +2423,7 @@
       </c>
       <c r="I35" s="25"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>144</v>
       </c>
@@ -2284,7 +2439,7 @@
       </c>
       <c r="I36" s="25"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>145</v>
       </c>
@@ -2300,7 +2455,7 @@
       </c>
       <c r="I37" s="25"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>153</v>
       </c>
@@ -2316,7 +2471,7 @@
       </c>
       <c r="I38" s="25"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>154</v>
       </c>
@@ -2332,7 +2487,7 @@
       </c>
       <c r="I39" s="25"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>155</v>
       </c>
@@ -2347,7 +2502,7 @@
       <c r="H40" s="18"/>
       <c r="I40" s="19"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>146</v>
       </c>
@@ -2368,7 +2523,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>147</v>
       </c>
@@ -2391,7 +2546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>148</v>
       </c>
@@ -2412,7 +2567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>149</v>
       </c>
@@ -2433,7 +2588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>150</v>
       </c>
@@ -2452,7 +2607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>151</v>
       </c>
@@ -2471,7 +2626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="39" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>152</v>
       </c>
@@ -2494,7 +2649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>156</v>
       </c>
@@ -2515,7 +2670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>157</v>
       </c>
@@ -2536,7 +2691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>158</v>
       </c>
@@ -2557,7 +2712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>159</v>
       </c>
@@ -2578,7 +2733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>161</v>
       </c>
@@ -2595,7 +2750,7 @@
       <c r="H52" s="22"/>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>160</v>
       </c>
@@ -2615,7 +2770,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>162</v>
       </c>
@@ -2638,7 +2793,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
         <v>163</v>
       </c>
@@ -2661,7 +2816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
         <v>164</v>
       </c>
@@ -2684,7 +2839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>165</v>
       </c>
@@ -2707,7 +2862,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
         <v>166</v>
       </c>
@@ -2730,7 +2885,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
         <v>167</v>
       </c>
@@ -2753,7 +2908,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>168</v>
       </c>
@@ -2776,7 +2931,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>169</v>
       </c>
@@ -2799,7 +2954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
         <v>170</v>
       </c>
@@ -2822,7 +2977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
         <v>171</v>
       </c>
@@ -2845,7 +3000,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
         <v>172</v>
       </c>
@@ -2868,7 +3023,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
         <v>173</v>
       </c>
@@ -2891,7 +3046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
         <v>36</v>
       </c>
@@ -2914,7 +3069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="49" t="s">
         <v>42</v>
       </c>
@@ -2937,7 +3092,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E68" s="37">
         <v>15</v>
       </c>
@@ -2954,7 +3109,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E69" s="37">
         <v>16</v>
       </c>
@@ -2969,7 +3124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E70" s="38">
         <v>17</v>
       </c>
@@ -2984,7 +3139,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E71" s="39">
         <v>18</v>
       </c>
@@ -3001,215 +3156,58 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F74" s="59"/>
-      <c r="G74" s="59"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F75" s="59"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F76" s="59"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F77" s="59"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F78" s="59"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F79" s="59"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F80" s="59"/>
-    </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F81" s="59"/>
-    </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F82" s="59"/>
-    </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F83" s="59"/>
-    </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F84" s="59"/>
-    </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F85" s="59"/>
-    </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F86" s="59"/>
-    </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F87" s="59"/>
-    </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F88" s="59"/>
-    </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F89" s="59"/>
-      <c r="G89" s="59"/>
-    </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F90" s="59"/>
-    </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F91" s="59"/>
-    </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F92" s="59"/>
-    </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F93" s="59"/>
-    </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F94" s="59"/>
-    </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F95" s="59"/>
-    </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F96" s="59"/>
-    </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F97" s="59"/>
-    </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F98" s="59"/>
-    </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F99" s="59"/>
-    </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F100" s="59"/>
-    </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F101" s="59"/>
-    </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F102" s="59"/>
-    </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F103" s="59"/>
-    </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F104" s="59"/>
-    </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F105" s="59"/>
-    </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F106" s="59"/>
-    </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F107" s="59"/>
-    </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F108" s="59"/>
-      <c r="G108" s="59"/>
-    </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F109" s="59"/>
-      <c r="G109" s="59"/>
-    </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F110" s="59"/>
-    </row>
-    <row r="111" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F111" s="59"/>
-    </row>
-    <row r="112" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F112" s="59"/>
-    </row>
-    <row r="113" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F113" s="59"/>
-    </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F114" s="59"/>
-      <c r="G114" s="60"/>
-    </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F115" s="59"/>
-      <c r="G115" s="59"/>
-    </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F116" s="59"/>
-      <c r="G116" s="59"/>
-    </row>
-    <row r="117" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F117" s="59"/>
-    </row>
-    <row r="118" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F118" s="59"/>
-    </row>
-    <row r="119" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F119" s="59"/>
-    </row>
-    <row r="120" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F120" s="59"/>
-    </row>
-    <row r="121" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F121" s="59"/>
-    </row>
-    <row r="122" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F122" s="59"/>
-    </row>
-    <row r="123" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F123" s="59"/>
-    </row>
-    <row r="124" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F124" s="59"/>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G114" s="59"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A24:B65">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66:E69">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:I42 F43:I46 F48:I51 F53">
-    <cfRule type="cellIs" dxfId="11" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="24" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:I47">
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:I65">
-    <cfRule type="cellIs" dxfId="9" priority="21" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F71:I71">
-    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="21" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66:H67">
-    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68:I71">
+    <cfRule type="cellIs" dxfId="3" priority="17" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53:I53">
-    <cfRule type="cellIs" dxfId="6" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="20" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64:I67 E66:E67 F68:I70">
-    <cfRule type="cellIs" dxfId="5" priority="23" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E69">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="I64:I67">
+    <cfRule type="cellIs" dxfId="1" priority="23" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3226,36 +3224,36 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>177</v>
       </c>
       <c r="B2" s="58"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>254</v>
       </c>
@@ -3269,768 +3267,942 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>218</v>
       </c>
       <c r="B5" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>218</v>
       </c>
       <c r="B6" t="s">
         <v>255</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" t="s">
         <v>220</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>221</v>
       </c>
       <c r="B7" t="s">
         <v>255</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>221</v>
       </c>
       <c r="B8" t="s">
         <v>255</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>221</v>
       </c>
       <c r="B9" t="s">
         <v>255</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>221</v>
       </c>
       <c r="B10" t="s">
         <v>255</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" t="s">
         <v>241</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>221</v>
       </c>
       <c r="B11" t="s">
         <v>255</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" t="s">
         <v>242</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>221</v>
       </c>
       <c r="B12" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" t="s">
         <v>244</v>
       </c>
       <c r="D12" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="59" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>221</v>
       </c>
       <c r="B13" t="s">
         <v>255</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" t="s">
         <v>245</v>
       </c>
       <c r="D13" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="59" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>221</v>
       </c>
       <c r="B14" t="s">
         <v>255</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" t="s">
         <v>246</v>
       </c>
       <c r="D14" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>221</v>
       </c>
       <c r="B15" t="s">
         <v>255</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" t="s">
         <v>247</v>
       </c>
       <c r="D15" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>225</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" t="s">
         <v>226</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" t="s">
         <v>227</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>225</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" t="s">
         <v>226</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" t="s">
         <v>228</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>225</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" t="s">
         <v>226</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" t="s">
         <v>229</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="59" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>225</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" t="s">
         <v>226</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" t="s">
         <v>243</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="59" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>225</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" t="s">
         <v>226</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" t="s">
         <v>230</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="59" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>225</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" t="s">
         <v>226</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" t="s">
         <v>231</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="59" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>225</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" t="s">
         <v>226</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" t="s">
         <v>232</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="59" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>225</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" t="s">
         <v>226</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" t="s">
         <v>233</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="59" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>225</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" t="s">
         <v>234</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" t="s">
         <v>243</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="59" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>225</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" t="s">
         <v>234</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" t="s">
         <v>227</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="59" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>225</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" t="s">
         <v>234</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" t="s">
         <v>228</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="59" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>225</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" t="s">
         <v>234</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="59" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>225</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" t="s">
         <v>234</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="59" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>225</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="59" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>225</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" t="s">
         <v>234</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="59" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>225</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" t="s">
         <v>234</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" t="s">
         <v>233</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="59" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>225</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" t="s">
         <v>235</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" t="s">
         <v>243</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="59" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>225</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" t="s">
         <v>235</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" t="s">
         <v>227</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="59" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>225</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" t="s">
         <v>235</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" t="s">
         <v>228</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="59" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>225</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" t="s">
         <v>235</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" t="s">
         <v>229</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="59" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>225</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" t="s">
         <v>235</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" t="s">
         <v>230</v>
       </c>
-      <c r="D36" s="59" t="s">
+      <c r="D36" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="59" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>225</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" t="s">
         <v>235</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" t="s">
         <v>231</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="59" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>225</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" t="s">
         <v>235</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" t="s">
         <v>232</v>
       </c>
-      <c r="D38" s="59" t="s">
+      <c r="D38" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="59" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>225</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" t="s">
         <v>235</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" t="s">
         <v>233</v>
       </c>
-      <c r="D39" s="59" t="s">
+      <c r="D39" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="59" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>236</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B40" t="s">
         <v>194</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" t="s">
         <v>243</v>
       </c>
-      <c r="D40" s="59" t="s">
+      <c r="D40" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="59" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>236</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" t="s">
         <v>227</v>
       </c>
-      <c r="D41" s="59" t="s">
+      <c r="D41" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="59" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>236</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" t="s">
         <v>194</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="59" t="s">
+      <c r="D42" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="59" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>236</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="59" t="s">
+      <c r="C43" t="s">
         <v>229</v>
       </c>
-      <c r="D43" s="59" t="s">
+      <c r="D43" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="59" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>236</v>
       </c>
-      <c r="B44" s="59" t="s">
+      <c r="B44" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" t="s">
         <v>230</v>
       </c>
-      <c r="D44" s="59" t="s">
+      <c r="D44" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="59" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>236</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" t="s">
         <v>194</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" t="s">
         <v>231</v>
       </c>
-      <c r="D45" s="59" t="s">
+      <c r="D45" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="59" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>236</v>
       </c>
-      <c r="B46" s="59" t="s">
+      <c r="B46" t="s">
         <v>194</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" t="s">
         <v>232</v>
       </c>
-      <c r="D46" s="59" t="s">
+      <c r="D46" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="59" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>236</v>
       </c>
-      <c r="B47" s="59" t="s">
+      <c r="B47" t="s">
         <v>194</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" t="s">
         <v>233</v>
       </c>
-      <c r="D47" s="59" t="s">
+      <c r="D47" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="59" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>237</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="B48" t="s">
         <v>238</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" t="s">
         <v>243</v>
       </c>
-      <c r="D48" s="59" t="s">
+      <c r="D48" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="59" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>237</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="B49" t="s">
         <v>238</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" t="s">
         <v>233</v>
       </c>
-      <c r="D49" s="59" t="s">
+      <c r="D49" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="59" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>237</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="B50" t="s">
         <v>238</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" t="s">
         <v>239</v>
       </c>
-      <c r="D50" s="59" t="s">
+      <c r="D50" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="59" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>248</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" t="s">
         <v>184</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" t="s">
         <v>249</v>
       </c>
-      <c r="D51" s="59" t="s">
+      <c r="D51" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="59" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>248</v>
       </c>
-      <c r="B52" s="59" t="s">
+      <c r="B52" t="s">
         <v>184</v>
       </c>
-      <c r="C52" s="59" t="s">
+      <c r="C52" t="s">
         <v>243</v>
       </c>
-      <c r="D52" s="59" t="s">
+      <c r="D52" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="59" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>248</v>
       </c>
-      <c r="B53" s="59" t="s">
+      <c r="B53" t="s">
         <v>250</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" t="s">
         <v>249</v>
       </c>
-      <c r="D53" s="59" t="s">
+      <c r="D53" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="59" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>248</v>
       </c>
-      <c r="B54" s="59" t="s">
+      <c r="B54" t="s">
         <v>250</v>
       </c>
-      <c r="C54" s="59" t="s">
+      <c r="C54" t="s">
         <v>243</v>
       </c>
-      <c r="D54" s="59" t="s">
+      <c r="D54" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="59" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>248</v>
       </c>
-      <c r="B55" s="59" t="s">
+      <c r="B55" t="s">
         <v>202</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" t="s">
         <v>243</v>
       </c>
-      <c r="D55" s="59" t="s">
+      <c r="D55" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="59" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>248</v>
       </c>
-      <c r="B56" s="59" t="s">
+      <c r="B56" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" t="s">
         <v>249</v>
       </c>
-      <c r="D56" s="59" t="s">
+      <c r="D56" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="59" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>248</v>
       </c>
-      <c r="B57" s="59" t="s">
+      <c r="B57" t="s">
         <v>186</v>
       </c>
-      <c r="C57" s="59" t="s">
+      <c r="C57" t="s">
         <v>249</v>
       </c>
-      <c r="D57" s="59" t="s">
+      <c r="D57" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="59" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>248</v>
       </c>
-      <c r="B58" s="59" t="s">
+      <c r="B58" t="s">
         <v>186</v>
       </c>
-      <c r="C58" s="59" t="s">
+      <c r="C58" t="s">
         <v>243</v>
       </c>
-      <c r="D58" s="59" t="s">
+      <c r="D58" t="s">
         <v>286</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD7991F-1303-457F-8276-2C834049980E}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="62" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="64" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="64" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>318</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>